--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1039.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1039.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7720716603394269</v>
+        <v>0.6612873673439026</v>
       </c>
       <c r="B1">
-        <v>3.25010487295074</v>
+        <v>1.15418529510498</v>
       </c>
       <c r="C1">
-        <v>2.747798685803651</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.530396027629298</v>
+        <v>2.081625461578369</v>
       </c>
       <c r="E1">
-        <v>2.08687986286526</v>
+        <v>1.090499639511108</v>
       </c>
     </row>
   </sheetData>
